--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
+    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "THouse" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +186,10 @@
   </si>
   <si>
     <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "TCar" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +623,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -643,22 +643,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
@@ -666,25 +666,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
@@ -697,28 +697,28 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -726,10 +726,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -848,20 +848,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="70" style="3" customWidth="1"/>
+    <col min="1" max="1" width="83.5" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,226 +1,373 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204" activeTab="1"/>
+    <workbookView windowWidth="18480" windowHeight="7830" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
-  <si>
-    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>M</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>odel</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveRange</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>RewardPerH</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>big_path</t>
+  </si>
+  <si>
+    <t>uint32</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>s</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>tring</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>品牌</t>
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动范围(单位:米)</t>
+  </si>
+  <si>
+    <t>最大收益金币</t>
+  </si>
+  <si>
+    <t>每小时产出金币</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+  </si>
+  <si>
+    <t>宝马</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>X</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动范围(单位:米)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大收益金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardPerH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每小时产出金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_1</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_1</t>
   </si>
   <si>
     <t>TableName: "TCar" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +380,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,12 +575,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -255,44 +830,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -614,127 +1233,146 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="64.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.6" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.9" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.2" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.9" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6" customWidth="1"/>
+    <col min="9" max="9" width="23.9" customWidth="1"/>
+    <col min="10" max="10" width="24.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1001</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>1000</v>
       </c>
       <c r="F5">
@@ -743,7 +1381,13 @@
       <c r="G5">
         <v>2000</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6"/>
@@ -752,7 +1396,7 @@
       <c r="D6"/>
       <c r="E6" s="7"/>
       <c r="F6"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7"/>
@@ -761,7 +1405,7 @@
       <c r="D7"/>
       <c r="E7" s="7"/>
       <c r="F7"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8"/>
@@ -770,7 +1414,7 @@
       <c r="D8"/>
       <c r="E8" s="7"/>
       <c r="F8"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9"/>
@@ -779,7 +1423,7 @@
       <c r="D9"/>
       <c r="E9" s="7"/>
       <c r="F9"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10"/>
@@ -788,16 +1432,16 @@
       <c r="D10"/>
       <c r="E10" s="7"/>
       <c r="F10"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="11"/>
       <c r="F11"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12"/>
@@ -806,36 +1450,35 @@
       <c r="D12"/>
       <c r="E12" s="7"/>
       <c r="F12"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="11"/>
       <c r="F13"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="11"/>
       <c r="F14"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="H16" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -844,82 +1487,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="83.5" style="3" customWidth="1"/>
-    <col min="2" max="8" width="8.796875" style="3"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
+    <col min="2" max="8" width="8.8" style="1"/>
+    <col min="9" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>2</v>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="7830" tabRatio="204"/>
+    <workbookView windowWidth="28080" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>path</t>
   </si>
   <si>
-    <t>big_path</t>
+    <t>bigpath</t>
   </si>
   <si>
     <t>uint32</t>
@@ -199,9 +199,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -217,9 +217,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,16 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,21 +330,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,91 +354,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,96 +382,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,43 +514,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,37 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,15 +573,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,16 +592,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,16 +636,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,164 +673,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" tabRatio="204"/>
+    <workbookView windowWidth="28080" windowHeight="13650" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>Id</t>
   </si>
@@ -27,7 +27,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>M</t>
     </r>
@@ -35,7 +35,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>odel</t>
     </r>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>bigpath</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>uint32</t>
@@ -69,7 +72,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>s</t>
     </r>
@@ -77,7 +80,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>tring</t>
     </r>
@@ -89,6 +92,15 @@
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
   <si>
+    <t>每秒收益</t>
+  </si>
+  <si>
+    <t>回本时间（分）</t>
+  </si>
+  <si>
+    <t>最大储存时间（分）</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -104,6 +116,9 @@
     <t>最大收益金币</t>
   </si>
   <si>
+    <t>每分钟产出金币</t>
+  </si>
+  <si>
     <t>价值</t>
   </si>
   <si>
@@ -113,7 +128,7 @@
     <t>图片路径</t>
   </si>
   <si>
-    <t>宝马</t>
+    <t>铁雪龙</t>
   </si>
   <si>
     <t>carIconAltas_json.small_1</t>
@@ -122,6 +137,42 @@
     <t>carIconAltas_json.big_1</t>
   </si>
   <si>
+    <t>大众</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_2</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_2</t>
+  </si>
+  <si>
+    <t>雪佛莱</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_3</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_3</t>
+  </si>
+  <si>
+    <t>保时捷</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_4</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_4</t>
+  </si>
+  <si>
+    <t>奔驰</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_5</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_5</t>
+  </si>
+  <si>
     <t>TableName: "TCar" Package: "table" CSClassHeader: "[System.Serializable]"</t>
   </si>
   <si>
@@ -171,33 +222,19 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>每分钟产出金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒收益</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大储存时间（分）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回本时间（分）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -205,27 +242,172 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +420,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -247,12 +615,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -260,11 +870,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -273,30 +883,77 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -622,34 +1279,34 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" customWidth="1"/>
-    <col min="10" max="10" width="24.3984375" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="2" max="2" width="6.6" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.9" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.2" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.9" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6" customWidth="1"/>
+    <col min="9" max="9" width="23.9" customWidth="1"/>
+    <col min="10" max="10" width="24.4" customWidth="1"/>
+    <col min="12" max="12" width="12.9" customWidth="1"/>
+    <col min="13" max="13" width="14.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,99 +1338,99 @@
         <v>9</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6">
         <v>316</v>
@@ -795,10 +1452,10 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -810,18 +1467,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>320</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" ref="E6:E9" si="0">F6*M6</f>
@@ -837,10 +1494,10 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -852,18 +1509,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>328</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
@@ -879,10 +1536,10 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -894,18 +1551,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1004</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>525</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
@@ -921,10 +1578,10 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>20</v>
@@ -936,18 +1593,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1005</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>530</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
@@ -963,10 +1620,10 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>25</v>
@@ -978,7 +1635,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -987,7 +1644,7 @@
       <c r="F10"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -996,7 +1653,7 @@
       <c r="F11"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1005,7 +1662,7 @@
       <c r="F12"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1014,7 +1671,7 @@
       <c r="F13"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1023,16 +1680,15 @@
       <c r="F14"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:8">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:8">
       <c r="H16" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1041,80 +1697,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.796875" style="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="8" width="8.8" style="1"/>
+    <col min="9" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13650" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>Id</t>
   </si>
@@ -128,7 +128,10 @@
     <t>图片路径</t>
   </si>
   <si>
-    <t>铁雪龙</t>
+    <t>奔驰</t>
+  </si>
+  <si>
+    <t>smart</t>
   </si>
   <si>
     <t>carIconAltas_json.small_1</t>
@@ -137,7 +140,10 @@
     <t>carIconAltas_json.big_1</t>
   </si>
   <si>
-    <t>大众</t>
+    <t>宝马</t>
+  </si>
+  <si>
+    <t>mini</t>
   </si>
   <si>
     <t>carIconAltas_json.small_2</t>
@@ -149,6 +155,9 @@
     <t>雪佛莱</t>
   </si>
   <si>
+    <t>科迈罗</t>
+  </si>
+  <si>
     <t>carIconAltas_json.small_3</t>
   </si>
   <si>
@@ -164,13 +173,38 @@
     <t>carIconAltas_json.big_4</t>
   </si>
   <si>
-    <t>奔驰</t>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
+    </r>
   </si>
   <si>
     <t>carIconAltas_json.small_5</t>
   </si>
   <si>
     <t>carIconAltas_json.big_5</t>
+  </si>
+  <si>
+    <t>劳斯劳斯</t>
+  </si>
+  <si>
+    <t>古斯特</t>
+  </si>
+  <si>
+    <t>360000</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_6</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_6</t>
   </si>
   <si>
     <t>TableName: "TCar" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -229,12 +263,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -242,16 +276,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -385,6 +409,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -392,20 +430,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -428,6 +452,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,30 +476,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,48 +500,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -536,13 +560,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,54 +627,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,151 +742,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -870,8 +894,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -883,22 +907,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,8 +1311,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1337,13 +1361,13 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1383,13 +1407,13 @@
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1432,8 +1456,8 @@
       <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6">
-        <v>316</v>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -1452,10 +1476,10 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1472,10 +1496,10 @@
         <v>1002</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>320</v>
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
       <c r="D6">
         <v>1500</v>
@@ -1494,10 +1518,10 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1514,10 +1538,10 @@
         <v>1003</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>328</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D7">
         <v>2000</v>
@@ -1536,10 +1560,10 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -1556,10 +1580,10 @@
         <v>1004</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>525</v>
+        <v>39</v>
+      </c>
+      <c r="C8" s="11">
+        <v>911</v>
       </c>
       <c r="D8">
         <v>2500</v>
@@ -1578,10 +1602,10 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>20</v>
@@ -1598,10 +1622,10 @@
         <v>1005</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
-        <v>530</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D9">
         <v>3000</v>
@@ -1620,10 +1644,10 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>25</v>
@@ -1635,21 +1659,49 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>1005</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="D10"/>
-      <c r="E10" s="7"/>
-      <c r="F10"/>
+      <c r="E10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>1800</v>
+      </c>
+      <c r="G10">
+        <v>300000</v>
+      </c>
       <c r="H10" s="6"/>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>120</v>
+      </c>
+      <c r="M10">
+        <v>180</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="13"/>
       <c r="F11"/>
       <c r="H11" s="6"/>
     </row>
@@ -1667,7 +1719,7 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="13"/>
       <c r="F13"/>
       <c r="H13" s="6"/>
     </row>
@@ -1676,7 +1728,7 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="13"/>
       <c r="F14"/>
       <c r="H14" s="6"/>
     </row>
@@ -1714,59 +1766,59 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -174,6 +174,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>G</t>
     </r>
     <r>
@@ -263,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -281,7 +286,143 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,142 +435,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -446,13 +451,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,163 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,17 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,22 +664,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +686,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -705,35 +713,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,148 +747,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1311,8 +1316,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1669,7 +1674,9 @@
       <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10"/>
+      <c r="D10">
+        <v>4000</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>47</v>
       </c>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
@@ -10,7 +10,7 @@
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -263,8 +263,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -685,14 +685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
@@ -707,7 +707,7 @@
     <col min="13" max="13" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -794,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -826,7 +826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -868,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -910,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -952,7 +952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -994,7 +994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -1036,9 +1036,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>45</v>
@@ -1078,7 +1078,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1087,7 +1087,7 @@
       <c r="F11"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1096,7 +1096,7 @@
       <c r="F12"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1105,7 +1105,7 @@
       <c r="F13"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1114,10 +1114,10 @@
       <c r="F14"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="H16" s="6"/>
     </row>
   </sheetData>
@@ -1132,26 +1132,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="1"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -27,7 +27,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>M</t>
     </r>
@@ -35,7 +35,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>odel</t>
     </r>
@@ -72,7 +72,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>s</t>
     </r>
@@ -80,7 +80,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>tring</t>
     </r>
@@ -177,7 +177,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>G</t>
     </r>
@@ -203,9 +203,6 @@
     <t>古斯特</t>
   </si>
   <si>
-    <t>360000</t>
-  </si>
-  <si>
     <t>carIconAltas_json.small_6</t>
   </si>
   <si>
@@ -266,14 +263,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -285,158 +276,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,194 +299,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -644,266 +308,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -924,65 +346,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1308,34 +680,34 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.6" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.9" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.2" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.9" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.6" customWidth="1"/>
-    <col min="9" max="9" width="23.9" customWidth="1"/>
-    <col min="10" max="10" width="24.4" customWidth="1"/>
-    <col min="12" max="12" width="12.9" customWidth="1"/>
-    <col min="13" max="13" width="14.9" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="9" max="9" width="23.8984375" customWidth="1"/>
+    <col min="10" max="10" width="24.3984375" customWidth="1"/>
+    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1408,7 +780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1454,7 +826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1496,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1538,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -1580,7 +952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -1622,7 +994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -1664,7 +1036,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -1677,21 +1049,24 @@
       <c r="D10">
         <v>4000</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>47</v>
+      <c r="E10" s="10">
+        <f>F10*M10</f>
+        <v>324000</v>
       </c>
       <c r="F10">
+        <f>K10*60</f>
         <v>1800</v>
       </c>
       <c r="G10">
-        <v>300000</v>
+        <f>L10*F10</f>
+        <v>216000</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
         <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -1703,16 +1078,16 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="12"/>
       <c r="F11"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1721,33 +1096,34 @@
       <c r="F12"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="12"/>
       <c r="F13"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="8:8">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="8:8">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H16" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1756,80 +1132,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.8" style="1"/>
-    <col min="9" max="16384" width="8.8" style="2"/>
+    <col min="2" max="8" width="8.796875" style="1"/>
+    <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
@@ -10,7 +10,7 @@
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -185,6 +185,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级</t>
@@ -263,8 +264,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -273,6 +274,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -685,14 +687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
@@ -707,7 +709,7 @@
     <col min="13" max="13" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -780,7 +782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -794,7 +796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -826,7 +828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -841,15 +843,15 @@
       </c>
       <c r="E5" s="10">
         <f>F5*M5</f>
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="F5">
         <f>K5*60</f>
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <f>L5*F5</f>
-        <v>2400</v>
+        <v>240</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" t="s">
@@ -859,7 +861,7 @@
         <v>30</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
         <v>20</v>
@@ -868,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -883,15 +885,15 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ref="E6:E9" si="0">F6*M6</f>
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F9" si="1">K6*60</f>
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G9" si="2">L6*F6</f>
-        <v>24000</v>
+        <v>2400</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" t="s">
@@ -901,7 +903,7 @@
         <v>34</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>40</v>
@@ -910,7 +912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -925,15 +927,15 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>2700</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>54000</v>
+        <v>5400</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" t="s">
@@ -943,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="K7">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
         <v>60</v>
@@ -952,7 +954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -967,15 +969,15 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>72000</v>
+        <v>7200</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>96000</v>
+        <v>9600</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" t="s">
@@ -985,7 +987,7 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>80</v>
@@ -994,7 +996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -1009,15 +1011,15 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>180000</v>
+        <v>18000</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" t="s">
@@ -1027,7 +1029,7 @@
         <v>44</v>
       </c>
       <c r="K9">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -1036,7 +1038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1006</v>
       </c>
@@ -1051,15 +1053,15 @@
       </c>
       <c r="E10" s="10">
         <f>F10*M10</f>
-        <v>324000</v>
+        <v>32400</v>
       </c>
       <c r="F10">
         <f>K10*60</f>
-        <v>1800</v>
+        <v>180</v>
       </c>
       <c r="G10">
         <f>L10*F10</f>
-        <v>216000</v>
+        <v>21600</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s">
@@ -1069,7 +1071,7 @@
         <v>48</v>
       </c>
       <c r="K10">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>120</v>
@@ -1078,7 +1080,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1087,7 +1089,7 @@
       <c r="F11"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1096,7 +1098,7 @@
       <c r="F12"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1105,7 +1107,7 @@
       <c r="F13"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1114,10 +1116,10 @@
       <c r="F14"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H16" s="6"/>
     </row>
   </sheetData>
@@ -1132,26 +1134,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="1"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
+    <workbookView windowWidth="27735" windowHeight="10350" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>Id</t>
   </si>
@@ -27,7 +27,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>M</t>
     </r>
@@ -35,7 +35,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>odel</t>
     </r>
@@ -72,7 +72,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>s</t>
     </r>
@@ -80,7 +80,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>tring</t>
     </r>
@@ -140,16 +140,64 @@
     <t>carIconAltas_json.big_1</t>
   </si>
   <si>
+    <t>本田</t>
+  </si>
+  <si>
+    <t>思域</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_2</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_2</t>
+  </si>
+  <si>
+    <t>大众</t>
+  </si>
+  <si>
+    <t>polo</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_3</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_3</t>
+  </si>
+  <si>
+    <t>丰田</t>
+  </si>
+  <si>
+    <t>汉兰达</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_4</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_4</t>
+  </si>
+  <si>
+    <t>奥迪</t>
+  </si>
+  <si>
+    <t>A4L</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_5</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_5</t>
+  </si>
+  <si>
     <t>宝马</t>
   </si>
   <si>
     <t>mini</t>
   </si>
   <si>
-    <t>carIconAltas_json.small_2</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_2</t>
+    <t>carIconAltas_json.small_6</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_6</t>
   </si>
   <si>
     <t>雪佛莱</t>
@@ -158,26 +206,26 @@
     <t>科迈罗</t>
   </si>
   <si>
-    <t>carIconAltas_json.small_3</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_3</t>
+    <t>carIconAltas_json.small_7</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_7</t>
   </si>
   <si>
     <t>保时捷</t>
   </si>
   <si>
-    <t>carIconAltas_json.small_4</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_4</t>
+    <t>carIconAltas_json.small_8</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_8</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>G</t>
     </r>
@@ -185,17 +233,16 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级</t>
     </r>
   </si>
   <si>
-    <t>carIconAltas_json.small_5</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_5</t>
+    <t>carIconAltas_json.small_9</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_9</t>
   </si>
   <si>
     <t>劳斯劳斯</t>
@@ -204,10 +251,10 @@
     <t>古斯特</t>
   </si>
   <si>
-    <t>carIconAltas_json.small_6</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_6</t>
+    <t>carIconAltas_json.small_10</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_10</t>
   </si>
   <si>
     <t>TableName: "TCar" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -264,8 +311,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -273,22 +326,167 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,8 +499,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -310,24 +694,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -336,27 +962,77 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -682,34 +1358,34 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A1" sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" customWidth="1"/>
-    <col min="10" max="10" width="24.3984375" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="2" max="2" width="6.6" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.9" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.2" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.9" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6" customWidth="1"/>
+    <col min="9" max="9" width="23.9" customWidth="1"/>
+    <col min="10" max="10" width="24.4" customWidth="1"/>
+    <col min="12" max="12" width="12.9" customWidth="1"/>
+    <col min="13" max="13" width="14.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -782,7 +1458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -796,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -828,29 +1504,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1001</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
-      <c r="E5" s="10">
-        <f>F5*M5</f>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E14" si="0">F5*M5</f>
         <v>120</v>
       </c>
       <c r="F5">
-        <f>K5*60</f>
+        <f t="shared" ref="F5:F14" si="1">K5*60</f>
         <v>12</v>
       </c>
       <c r="G5">
-        <f>L5*F5</f>
+        <f t="shared" ref="G5:G14" si="2">L5*F5</f>
         <v>240</v>
       </c>
       <c r="H5" s="6"/>
@@ -870,29 +1546,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1002</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D6">
         <v>1500</v>
       </c>
-      <c r="E6" s="10">
-        <f t="shared" ref="E6:E9" si="0">F6*M6</f>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F9" si="1">K6*60</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G9" si="2">L6*F6</f>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="H6" s="6"/>
@@ -912,20 +1588,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1003</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
@@ -954,20 +1630,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1004</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="11">
-        <v>911</v>
+      <c r="C8" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D8">
         <v>2500</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
@@ -981,10 +1657,10 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -996,20 +1672,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1005</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
@@ -1023,10 +1699,10 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>2.5</v>
@@ -1038,37 +1714,37 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1006</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D10">
         <v>4000</v>
       </c>
-      <c r="E10" s="10">
-        <f>F10*M10</f>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
         <v>32400</v>
       </c>
       <c r="F10">
-        <f>K10*60</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="G10">
-        <f>L10*F10</f>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1080,52 +1756,183 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="12"/>
-      <c r="F11"/>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>50400</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>29400</v>
+      </c>
       <c r="H11" s="6"/>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <v>140</v>
+      </c>
+      <c r="M11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" s="7"/>
-      <c r="F12"/>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="13">
+        <v>911</v>
+      </c>
+      <c r="D12">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>72000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>38400</v>
+      </c>
       <c r="H12" s="6"/>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>160</v>
+      </c>
+      <c r="M12">
+        <v>300</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" s="12"/>
-      <c r="F13"/>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>7000</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
+        <v>97200</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>48600</v>
+      </c>
       <c r="H13" s="6"/>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>4.5</v>
+      </c>
+      <c r="L13">
+        <v>180</v>
+      </c>
+      <c r="M13">
+        <v>360</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" s="12"/>
-      <c r="F14"/>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
+        <v>126000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
       <c r="H14" s="6"/>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>200</v>
+      </c>
+      <c r="M14">
+        <v>420</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:8">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:8">
       <c r="H16" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1134,80 +1941,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.796875" style="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="8" width="8.8" style="1"/>
+    <col min="9" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="10350" tabRatio="204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="10350" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Id</t>
   </si>
@@ -27,7 +27,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>M</t>
     </r>
@@ -35,7 +35,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>odel</t>
     </r>
@@ -72,7 +72,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>s</t>
     </r>
@@ -80,7 +80,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>tring</t>
     </r>
@@ -225,7 +225,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>G</t>
     </r>
@@ -311,14 +311,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -327,7 +321,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -335,158 +329,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,194 +347,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -694,251 +356,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -949,11 +369,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -981,58 +401,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1358,34 +731,34 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.6" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.9" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.2" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.9" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.6" customWidth="1"/>
-    <col min="9" max="9" width="23.9" customWidth="1"/>
-    <col min="10" max="10" width="24.4" customWidth="1"/>
-    <col min="12" max="12" width="12.9" customWidth="1"/>
-    <col min="13" max="13" width="14.9" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="9" max="9" width="23.8984375" customWidth="1"/>
+    <col min="10" max="10" width="24.3984375" customWidth="1"/>
+    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1504,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1518,15 +891,15 @@
         <v>1000</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" ref="E5:E14" si="0">F5*M5</f>
+        <f>INT(F5*M5)</f>
         <v>120</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F14" si="1">K5*60</f>
+        <f>INT(K5*60)</f>
         <v>12</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G14" si="2">L5*F5</f>
+        <f>INT(L5*F5)</f>
         <v>240</v>
       </c>
       <c r="H5" s="6"/>
@@ -1546,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1560,15 +933,15 @@
         <v>1500</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E6:E14" si="0">INT(F6*M6)</f>
         <v>1200</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F6:F14" si="1">INT(K6*60)</f>
         <v>60</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G6:G14" si="2">INT(L6*F6)</f>
         <v>2400</v>
       </c>
       <c r="H6" s="6"/>
@@ -1588,7 +961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -1630,7 +1003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -1672,7 +1045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -1714,7 +1087,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1006</v>
       </c>
@@ -1756,7 +1129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1007</v>
       </c>
@@ -1798,7 +1171,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1008</v>
       </c>
@@ -1840,7 +1213,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1009</v>
       </c>
@@ -1882,7 +1255,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1010</v>
       </c>
@@ -1924,15 +1297,16 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="8:8">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="8:8">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H16" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1941,27 +1315,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.8" style="1"/>
-    <col min="9" max="16384" width="8.8" style="2"/>
+    <col min="2" max="8" width="8.796875" style="1"/>
+    <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1987,7 +1360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -2014,7 +1387,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -740,7 +740,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -934,15 +934,15 @@
       </c>
       <c r="E6" s="12">
         <f t="shared" ref="E6:E14" si="0">INT(F6*M6)</f>
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F14" si="1">INT(K6*60)</f>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G14" si="2">INT(L6*F6)</f>
-        <v>2400</v>
+        <v>960</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" t="s">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L6">
         <v>40</v>
@@ -976,15 +976,15 @@
       </c>
       <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>1080</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>5400</v>
+        <v>2160</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" t="s">
@@ -994,7 +994,7 @@
         <v>38</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="L7">
         <v>60</v>
@@ -1018,15 +1018,15 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>2880</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>9600</v>
+        <v>5760</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" t="s">
@@ -1036,10 +1036,10 @@
         <v>42</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M8">
         <v>60</v>
@@ -1060,15 +1060,15 @@
       </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>7200</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" t="s">
@@ -1078,10 +1078,10 @@
         <v>46</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M9">
         <v>120</v>
@@ -1102,15 +1102,15 @@
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>32400</v>
+        <v>12960</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>21600</v>
+        <v>25920</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s">
@@ -1120,10 +1120,10 @@
         <v>50</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L10">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="M10">
         <v>180</v>
@@ -1144,15 +1144,15 @@
       </c>
       <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>50400</v>
+        <v>20160</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>29400</v>
+        <v>50400</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" t="s">
@@ -1162,10 +1162,10 @@
         <v>54</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="L11">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="M11">
         <v>240</v>
@@ -1186,15 +1186,15 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
-        <v>72000</v>
+        <v>28800</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>38400</v>
+        <v>80640</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" t="s">
@@ -1204,10 +1204,10 @@
         <v>57</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="L12">
-        <v>160</v>
+        <v>840</v>
       </c>
       <c r="M12">
         <v>300</v>
@@ -1228,15 +1228,15 @@
       </c>
       <c r="E13" s="12">
         <f t="shared" si="0"/>
-        <v>97200</v>
+        <v>38880</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>48600</v>
+        <v>116640</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" t="s">
@@ -1246,10 +1246,10 @@
         <v>60</v>
       </c>
       <c r="K13">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L13">
-        <v>180</v>
+        <v>1080</v>
       </c>
       <c r="M13">
         <v>360</v>
@@ -1270,15 +1270,15 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>126000</v>
+        <v>50400</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>180000</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" t="s">
@@ -1288,10 +1288,10 @@
         <v>64</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="M14">
         <v>420</v>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="10350" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>Id</t>
   </si>
@@ -27,7 +27,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>M</t>
     </r>
@@ -35,7 +35,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>odel</t>
     </r>
@@ -72,7 +72,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>s</t>
     </r>
@@ -80,7 +80,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>tring</t>
     </r>
@@ -225,7 +225,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>G</t>
     </r>
@@ -311,8 +311,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -321,7 +327,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -329,12 +335,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +499,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -356,9 +694,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -369,11 +949,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -401,11 +981,58 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -731,34 +1358,34 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" customWidth="1"/>
-    <col min="10" max="10" width="24.3984375" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="2" max="2" width="6.6" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.9" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.2" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.9" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6" customWidth="1"/>
+    <col min="9" max="9" width="23.9" customWidth="1"/>
+    <col min="10" max="10" width="24.4" customWidth="1"/>
+    <col min="12" max="12" width="12.9" customWidth="1"/>
+    <col min="13" max="13" width="14.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -831,7 +1458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -845,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -877,7 +1504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -900,7 +1527,7 @@
       </c>
       <c r="G5">
         <f>INT(L5*F5)</f>
-        <v>240</v>
+        <v>24000</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" t="s">
@@ -913,13 +1540,13 @@
         <v>0.2</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="M5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -942,7 +1569,7 @@
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G14" si="2">INT(L6*F6)</f>
-        <v>2400</v>
+        <v>240000</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" t="s">
@@ -955,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="M6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -984,7 +1611,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>5400</v>
+        <v>540000</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" t="s">
@@ -997,13 +1624,13 @@
         <v>1.5</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>6000</v>
       </c>
       <c r="M7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -1026,7 +1653,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>9600</v>
+        <v>960000</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" t="s">
@@ -1039,13 +1666,13 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="M8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -1068,7 +1695,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1500000</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" t="s">
@@ -1081,13 +1708,13 @@
         <v>2.5</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="M9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1006</v>
       </c>
@@ -1110,7 +1737,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>21600</v>
+        <v>2160000</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s">
@@ -1123,13 +1750,13 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="M10">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1007</v>
       </c>
@@ -1152,7 +1779,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>29400</v>
+        <v>2940000</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" t="s">
@@ -1165,13 +1792,13 @@
         <v>3.5</v>
       </c>
       <c r="L11">
-        <v>140</v>
+        <v>14000</v>
       </c>
       <c r="M11">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1008</v>
       </c>
@@ -1194,7 +1821,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>38400</v>
+        <v>3840000</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" t="s">
@@ -1207,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="L12">
-        <v>160</v>
+        <v>16000</v>
       </c>
       <c r="M12">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1009</v>
       </c>
@@ -1236,7 +1863,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>48600</v>
+        <v>4860000</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" t="s">
@@ -1249,13 +1876,13 @@
         <v>4.5</v>
       </c>
       <c r="L13">
-        <v>180</v>
+        <v>18000</v>
       </c>
       <c r="M13">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1010</v>
       </c>
@@ -1278,7 +1905,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>6000000</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" t="s">
@@ -1291,22 +1918,21 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="M14">
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:8">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:8">
       <c r="H16" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1315,26 +1941,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.796875" style="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="8" width="8.8" style="1"/>
+    <col min="9" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1360,7 +1987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -1387,8 +2014,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="10350" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>Id</t>
   </si>
@@ -27,7 +27,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>M</t>
     </r>
@@ -35,7 +35,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>odel</t>
     </r>
@@ -72,7 +72,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>s</t>
     </r>
@@ -80,7 +80,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>tring</t>
     </r>
@@ -225,7 +225,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>G</t>
     </r>
@@ -311,8 +311,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -321,7 +327,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -329,12 +335,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +499,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -356,9 +694,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -369,11 +949,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -401,11 +981,58 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -731,34 +1358,34 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" customWidth="1"/>
-    <col min="10" max="10" width="24.3984375" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="2" max="2" width="6.6" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.9" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.2" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.9" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6" customWidth="1"/>
+    <col min="9" max="9" width="23.9" customWidth="1"/>
+    <col min="10" max="10" width="24.4" customWidth="1"/>
+    <col min="12" max="12" width="12.9" customWidth="1"/>
+    <col min="13" max="13" width="14.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -831,7 +1458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -845,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -877,7 +1504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -900,7 +1527,7 @@
       </c>
       <c r="G5">
         <f>INT(L5*F5)</f>
-        <v>240</v>
+        <v>24000</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" t="s">
@@ -913,13 +1540,13 @@
         <v>0.2</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="M5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -934,15 +1561,15 @@
       </c>
       <c r="E6" s="12">
         <f t="shared" ref="E6:E14" si="0">INT(F6*M6)</f>
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F14" si="1">INT(K6*60)</f>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G14" si="2">INT(L6*F6)</f>
-        <v>960</v>
+        <v>240000</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" t="s">
@@ -952,16 +1579,16 @@
         <v>34</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="M6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -976,15 +1603,15 @@
       </c>
       <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>2700</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>2160</v>
+        <v>540000</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" t="s">
@@ -994,16 +1621,16 @@
         <v>38</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>6000</v>
       </c>
       <c r="M7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -1018,15 +1645,15 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>2880</v>
+        <v>7200</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>5760</v>
+        <v>960000</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" t="s">
@@ -1036,16 +1663,16 @@
         <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>120</v>
+        <v>8000</v>
       </c>
       <c r="M8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -1060,15 +1687,15 @@
       </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>14400</v>
+        <v>1500000</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" t="s">
@@ -1078,16 +1705,16 @@
         <v>46</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>240</v>
+        <v>10000</v>
       </c>
       <c r="M9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1006</v>
       </c>
@@ -1102,15 +1729,15 @@
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>12960</v>
+        <v>32400</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>25920</v>
+        <v>2160000</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s">
@@ -1120,16 +1747,16 @@
         <v>50</v>
       </c>
       <c r="K10">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>360</v>
+        <v>12000</v>
       </c>
       <c r="M10">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1007</v>
       </c>
@@ -1144,15 +1771,15 @@
       </c>
       <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>20160</v>
+        <v>50400</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>50400</v>
+        <v>2940000</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" t="s">
@@ -1162,16 +1789,16 @@
         <v>54</v>
       </c>
       <c r="K11">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>600</v>
+        <v>14000</v>
       </c>
       <c r="M11">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1008</v>
       </c>
@@ -1186,15 +1813,15 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
-        <v>28800</v>
+        <v>72000</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>80640</v>
+        <v>3840000</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" t="s">
@@ -1204,16 +1831,16 @@
         <v>57</v>
       </c>
       <c r="K12">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>840</v>
+        <v>16000</v>
       </c>
       <c r="M12">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1009</v>
       </c>
@@ -1228,15 +1855,15 @@
       </c>
       <c r="E13" s="12">
         <f t="shared" si="0"/>
-        <v>38880</v>
+        <v>97200</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>116640</v>
+        <v>4860000</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" t="s">
@@ -1246,16 +1873,16 @@
         <v>60</v>
       </c>
       <c r="K13">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="L13">
-        <v>1080</v>
+        <v>18000</v>
       </c>
       <c r="M13">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1010</v>
       </c>
@@ -1270,15 +1897,15 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>50400</v>
+        <v>126000</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>180000</v>
+        <v>6000000</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" t="s">
@@ -1288,25 +1915,24 @@
         <v>64</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>1500</v>
+        <v>20000</v>
       </c>
       <c r="M14">
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:8">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:8">
       <c r="H16" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1315,26 +1941,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.796875" style="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="8" width="8.8" style="1"/>
+    <col min="9" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1360,7 +1987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -1387,8 +2014,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -740,7 +740,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="G5">
         <f>INT(L5*F5)</f>
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" t="s">
@@ -913,7 +913,7 @@
         <v>0.2</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G14" si="2">INT(L6*F6)</f>
-        <v>960</v>
+        <v>2880</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" t="s">
@@ -955,7 +955,7 @@
         <v>0.4</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="M6">
         <v>20</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>2160</v>
+        <v>6480</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" t="s">
@@ -997,7 +997,7 @@
         <v>0.6</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="M7">
         <v>30</v>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>5760</v>
+        <v>17280</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" t="s">
@@ -1039,7 +1039,7 @@
         <v>0.8</v>
       </c>
       <c r="L8">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="M8">
         <v>60</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" t="s">
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="M9">
         <v>120</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>25920</v>
+        <v>77760</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s">
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="L10">
-        <v>360</v>
+        <v>1080</v>
       </c>
       <c r="M10">
         <v>180</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>50400</v>
+        <v>151200</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" t="s">
@@ -1165,7 +1165,7 @@
         <v>1.4</v>
       </c>
       <c r="L11">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="M11">
         <v>240</v>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>80640</v>
+        <v>241920</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" t="s">
@@ -1207,7 +1207,7 @@
         <v>1.6</v>
       </c>
       <c r="L12">
-        <v>840</v>
+        <v>2520</v>
       </c>
       <c r="M12">
         <v>300</v>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>116640</v>
+        <v>349920</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" t="s">
@@ -1249,7 +1249,7 @@
         <v>1.8</v>
       </c>
       <c r="L13">
-        <v>1080</v>
+        <v>3240</v>
       </c>
       <c r="M13">
         <v>360</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>180000</v>
+        <v>540000</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" t="s">
@@ -1291,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="M14">
         <v>420</v>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
@@ -10,12 +10,12 @@
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>Id</t>
   </si>
@@ -41,15 +41,6 @@
     </r>
   </si>
   <si>
-    <t>MoveRange</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>RewardPerH</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -110,15 +101,6 @@
     <t>型号</t>
   </si>
   <si>
-    <t>移动范围(单位:米)</t>
-  </si>
-  <si>
-    <t>最大收益金币</t>
-  </si>
-  <si>
-    <t>每分钟产出金币</t>
-  </si>
-  <si>
     <t>价值</t>
   </si>
   <si>
@@ -307,12 +289,111 @@
   <si>
     <t>注释</t>
   </si>
+  <si>
+    <t>Tyre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ank</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油箱id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trunk</t>
+  </si>
+  <si>
+    <t>后备箱id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>发动机id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>电瓶id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大星级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>axStar</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarAttrGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级套件属性(没有填0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -332,6 +413,12 @@
       <sz val="9"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -365,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,17 +462,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,11 +474,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,572 +819,495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" customWidth="1"/>
-    <col min="10" max="10" width="24.3984375" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="23.8984375" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1001</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="12">
-        <f>INT(F5*M5)</f>
-        <v>120</v>
-      </c>
-      <c r="F5">
-        <f>INT(K5*60)</f>
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <f>INT(L5*F5)</f>
-        <v>720</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5">
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="e">
+        <f>INT(P5*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5">
         <v>0.2</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>60</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1002</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="12">
-        <f t="shared" ref="E6:E14" si="0">INT(F6*M6)</f>
-        <v>480</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F14" si="1">INT(K6*60)</f>
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G14" si="2">INT(L6*F6)</f>
-        <v>2880</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6">
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="e">
+        <f>INT(P6*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6">
         <v>0.4</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>120</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>1003</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>6480</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7">
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="e">
+        <f>INT(P7*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7">
         <v>0.6</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>180</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>1004</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="0"/>
-        <v>2880</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>17280</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="e">
+        <f>INT(P8*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8">
         <v>0.8</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>360</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>1005</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>3000</v>
-      </c>
-      <c r="E9" s="12">
-        <f t="shared" si="0"/>
-        <v>7200</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>43200</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9">
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="e">
+        <f>INT(P9*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>720</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>1006</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>4000</v>
-      </c>
-      <c r="E10" s="12">
-        <f t="shared" si="0"/>
-        <v>12960</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>77760</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10">
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="e">
+        <f>INT(P10*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10">
         <v>1.2</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>1080</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>1007</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="0"/>
-        <v>20160</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>151200</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11">
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="e">
+        <f>INT(P11*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11">
         <v>1.4</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>1800</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>1008</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="9">
         <v>911</v>
       </c>
-      <c r="D12">
-        <v>6000</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="0"/>
-        <v>28800</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>241920</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12">
+      <c r="D12" t="e">
+        <f>INT(P12*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12">
         <v>1.6</v>
       </c>
-      <c r="L12">
+      <c r="P12">
         <v>2520</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>1009</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13">
-        <v>7000</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="0"/>
-        <v>38880</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>349920</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13">
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="e">
+        <f>INT(P13*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13">
         <v>1.8</v>
       </c>
-      <c r="L13">
+      <c r="P13">
         <v>3240</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>1010</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14">
-        <v>8000</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="0"/>
-        <v>50400</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>540000</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14">
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="e">
+        <f>INT(P14*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14">
         <v>2</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>4500</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H16" s="6"/>
+    <row r="15" spans="1:17">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1315,75 +1321,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="1"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1003,9 +1003,8 @@
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="e">
-        <f>INT(P5*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" t="s">
@@ -1014,6 +1013,27 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
       <c r="O5">
         <v>0.2</v>
       </c>
@@ -1034,9 +1054,8 @@
       <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="e">
-        <f>INT(P6*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
@@ -1045,6 +1064,27 @@
       <c r="G6" t="s">
         <v>28</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="O6">
         <v>0.4</v>
       </c>
@@ -1065,9 +1105,8 @@
       <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="e">
-        <f>INT(P7*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
@@ -1076,6 +1115,27 @@
       <c r="G7" t="s">
         <v>32</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
       <c r="O7">
         <v>0.6</v>
       </c>
@@ -1096,9 +1156,8 @@
       <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="e">
-        <f>INT(P8*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" t="s">
@@ -1107,6 +1166,27 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
       <c r="O8">
         <v>0.8</v>
       </c>
@@ -1127,9 +1207,8 @@
       <c r="C9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="e">
-        <f>INT(P9*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" t="s">
@@ -1138,6 +1217,27 @@
       <c r="G9" t="s">
         <v>40</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>1</v>
       </c>
@@ -1158,9 +1258,8 @@
       <c r="C10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="e">
-        <f>INT(P10*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
@@ -1169,6 +1268,27 @@
       <c r="G10" t="s">
         <v>44</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
       <c r="O10">
         <v>1.2</v>
       </c>
@@ -1189,9 +1309,8 @@
       <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="e">
-        <f>INT(P11*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
@@ -1200,6 +1319,27 @@
       <c r="G11" t="s">
         <v>48</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
       <c r="O11">
         <v>1.4</v>
       </c>
@@ -1220,9 +1360,8 @@
       <c r="C12" s="9">
         <v>911</v>
       </c>
-      <c r="D12" t="e">
-        <f>INT(P12*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" t="s">
@@ -1231,6 +1370,27 @@
       <c r="G12" t="s">
         <v>51</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
       <c r="O12">
         <v>1.6</v>
       </c>
@@ -1251,9 +1411,8 @@
       <c r="C13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="e">
-        <f>INT(P13*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" t="s">
@@ -1262,6 +1421,27 @@
       <c r="G13" t="s">
         <v>54</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
       <c r="O13">
         <v>1.8</v>
       </c>
@@ -1282,9 +1462,8 @@
       <c r="C14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="e">
-        <f>INT(P14*#REF!)</f>
-        <v>#REF!</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" t="s">
@@ -1292,6 +1471,27 @@
       </c>
       <c r="G14" t="s">
         <v>58</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14">
         <v>2</v>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>Id</t>
   </si>
@@ -27,7 +27,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>M</t>
     </r>
@@ -35,7 +35,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>odel</t>
     </r>
@@ -53,17 +53,68 @@
     <t>bigpath</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>uint32</t>
+    <t>Tyre</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank</t>
+    </r>
+  </si>
+  <si>
+    <t>Trunk</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>axStar</t>
+    </r>
+  </si>
+  <si>
+    <t>StarAttrGroup</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
       </rPr>
       <t>s</t>
     </r>
@@ -71,143 +122,182 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>tring</t>
     </r>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
-  <si>
-    <t>每秒收益</t>
-  </si>
-  <si>
-    <t>回本时间（分）</t>
-  </si>
-  <si>
-    <t>最大储存时间（分）</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>图片路径</t>
-  </si>
-  <si>
-    <t>奔驰</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_1</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_1</t>
-  </si>
-  <si>
-    <t>本田</t>
-  </si>
-  <si>
-    <t>思域</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_2</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_2</t>
-  </si>
-  <si>
-    <t>大众</t>
-  </si>
-  <si>
-    <t>polo</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_3</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_3</t>
-  </si>
-  <si>
-    <t>丰田</t>
-  </si>
-  <si>
-    <t>汉兰达</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_4</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_4</t>
-  </si>
-  <si>
-    <t>奥迪</t>
-  </si>
-  <si>
-    <t>A4L</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_5</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_5</t>
-  </si>
-  <si>
-    <t>宝马</t>
-  </si>
-  <si>
-    <t>mini</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_6</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_6</t>
-  </si>
-  <si>
-    <t>雪佛莱</t>
-  </si>
-  <si>
-    <t>科迈罗</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_7</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_7</t>
-  </si>
-  <si>
-    <t>保时捷</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_8</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_8</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
+  </si>
+  <si>
+    <t>每秒收益</t>
+  </si>
+  <si>
+    <t>回本时间（分）</t>
+  </si>
+  <si>
+    <t>最大储存时间（分）</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+  </si>
+  <si>
+    <t>轮胎id</t>
+  </si>
+  <si>
+    <t>油箱id</t>
+  </si>
+  <si>
+    <t>后备箱id</t>
+  </si>
+  <si>
+    <t>发动机id</t>
+  </si>
+  <si>
+    <t>电瓶id</t>
+  </si>
+  <si>
+    <t>最大星级</t>
+  </si>
+  <si>
+    <t>星级套件属性(没有填0)</t>
+  </si>
+  <si>
+    <t>奔驰</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_1</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_1</t>
+  </si>
+  <si>
+    <t>本田</t>
+  </si>
+  <si>
+    <t>思域</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_2</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_2</t>
+  </si>
+  <si>
+    <t>大众</t>
+  </si>
+  <si>
+    <t>polo</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_3</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_3</t>
+  </si>
+  <si>
+    <t>丰田</t>
+  </si>
+  <si>
+    <t>汉兰达</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_4</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_4</t>
+  </si>
+  <si>
+    <t>奥迪</t>
+  </si>
+  <si>
+    <t>A4L</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_5</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_5</t>
+  </si>
+  <si>
+    <t>宝马</t>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_6</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_6</t>
+  </si>
+  <si>
+    <t>雪佛莱</t>
+  </si>
+  <si>
+    <t>科迈罗</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_7</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_7</t>
+  </si>
+  <si>
+    <t>保时捷</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_8</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
       </rPr>
       <t>G</t>
     </r>
@@ -289,111 +379,18 @@
   <si>
     <t>注释</t>
   </si>
-  <si>
-    <t>Tyre</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮胎id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ank</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油箱id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trunk</t>
-  </si>
-  <si>
-    <t>后备箱id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Engine</t>
-  </si>
-  <si>
-    <t>发动机id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>电瓶id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大星级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>axStar</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StarAttrGroup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级套件属性(没有填0)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -402,7 +399,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -410,18 +407,163 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +576,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -443,9 +771,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -456,16 +1026,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,18 +1053,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -814,28 +1431,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="23.8984375" customWidth="1"/>
-    <col min="7" max="7" width="24.3984375" customWidth="1"/>
-    <col min="12" max="12" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6" customWidth="1"/>
+    <col min="6" max="6" width="23.9" customWidth="1"/>
+    <col min="7" max="7" width="24.4" customWidth="1"/>
+    <col min="12" max="12" width="7.4" customWidth="1"/>
+    <col min="14" max="14" width="18.7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -860,173 +1477,173 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>79</v>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>91</v>
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>92</v>
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>93</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
         <v>1001</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1048,36 +1665,36 @@
       <c r="A6">
         <v>1002</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2002</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3002</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>4002</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5002</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1099,36 +1716,36 @@
       <c r="A7">
         <v>1003</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>4003</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5003</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1150,36 +1767,36 @@
       <c r="A8">
         <v>1004</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2004</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3004</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4004</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5004</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1201,36 +1818,36 @@
       <c r="A9">
         <v>1005</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>38</v>
+      <c r="B9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3005</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4005</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5005</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1252,36 +1869,36 @@
       <c r="A10">
         <v>1006</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>42</v>
+      <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3006</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4006</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5006</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1303,36 +1920,36 @@
       <c r="A11">
         <v>1007</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>46</v>
+      <c r="B11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3007</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4007</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5007</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1354,10 +1971,10 @@
       <c r="A12">
         <v>1008</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="11">
         <v>911</v>
       </c>
       <c r="D12">
@@ -1365,25 +1982,25 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2008</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3008</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4008</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5008</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1405,36 +2022,36 @@
       <c r="A13">
         <v>1009</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>52</v>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3009</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4009</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5009</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1456,36 +2073,36 @@
       <c r="A14">
         <v>1010</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>56</v>
+      <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2010</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3010</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4010</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5010</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1503,16 +2120,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="5:5">
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="5:5">
       <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1521,80 +2137,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.796875" style="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="8" width="8.8" style="1"/>
+    <col min="9" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13650" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -27,7 +27,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>M</t>
     </r>
@@ -35,7 +35,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>odel</t>
     </r>
@@ -60,7 +60,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>T</t>
     </r>
@@ -68,7 +68,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ank</t>
     </r>
@@ -87,7 +87,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>M</t>
     </r>
@@ -95,7 +95,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>axStar</t>
     </r>
@@ -108,34 +108,16 @@
   </si>
   <si>
     <t>uint32</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>u</t>
     </r>
@@ -143,7 +125,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>int32</t>
     </r>
@@ -200,197 +182,140 @@
     <t>星级套件属性(没有填0)</t>
   </si>
   <si>
-    <t>奔驰</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
     <t>carIconAltas_json.small_1</t>
   </si>
   <si>
     <t>carIconAltas_json.big_1</t>
   </si>
   <si>
-    <t>本田</t>
-  </si>
-  <si>
-    <t>思域</t>
-  </si>
-  <si>
     <t>carIconAltas_json.small_2</t>
   </si>
   <si>
     <t>carIconAltas_json.big_2</t>
   </si>
   <si>
-    <t>大众</t>
-  </si>
-  <si>
-    <t>polo</t>
-  </si>
-  <si>
     <t>carIconAltas_json.small_3</t>
   </si>
   <si>
     <t>carIconAltas_json.big_3</t>
   </si>
   <si>
-    <t>丰田</t>
-  </si>
-  <si>
-    <t>汉兰达</t>
-  </si>
-  <si>
     <t>carIconAltas_json.small_4</t>
   </si>
   <si>
     <t>carIconAltas_json.big_4</t>
   </si>
   <si>
-    <t>奥迪</t>
-  </si>
-  <si>
-    <t>A4L</t>
-  </si>
-  <si>
     <t>carIconAltas_json.small_5</t>
   </si>
   <si>
     <t>carIconAltas_json.big_5</t>
   </si>
   <si>
-    <t>宝马</t>
-  </si>
-  <si>
-    <t>mini</t>
-  </si>
-  <si>
     <t>carIconAltas_json.small_6</t>
   </si>
   <si>
     <t>carIconAltas_json.big_6</t>
   </si>
   <si>
-    <t>雪佛莱</t>
-  </si>
-  <si>
-    <t>科迈罗</t>
-  </si>
-  <si>
     <t>carIconAltas_json.small_7</t>
   </si>
   <si>
     <t>carIconAltas_json.big_7</t>
   </si>
   <si>
-    <t>保时捷</t>
-  </si>
-  <si>
     <t>carIconAltas_json.small_8</t>
   </si>
   <si>
     <t>carIconAltas_json.big_8</t>
   </si>
   <si>
+    <t>carIconAltas_json.small_9</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_9</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.small_10</t>
+  </si>
+  <si>
+    <t>carIconAltas_json.big_10</t>
+  </si>
+  <si>
+    <t>TableName: "TCar" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
-      <t>G</t>
+      <t>int32</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级</t>
-    </r>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_9</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_9</t>
-  </si>
-  <si>
-    <t>劳斯劳斯</t>
-  </si>
-  <si>
-    <t>古斯特</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.small_10</t>
-  </si>
-  <si>
-    <t>carIconAltas_json.big_10</t>
-  </si>
-  <si>
-    <t>TableName: "TCar" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>注释</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -399,7 +324,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -412,158 +337,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,194 +355,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -771,266 +364,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1050,62 +401,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1431,28 +732,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.6" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.6" customWidth="1"/>
-    <col min="6" max="6" width="23.9" customWidth="1"/>
-    <col min="7" max="7" width="24.4" customWidth="1"/>
-    <col min="12" max="12" width="7.4" customWidth="1"/>
-    <col min="14" max="14" width="18.7" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="23.8984375" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" customWidth="1"/>
+    <col min="14" max="14" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1508,30 +809,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>15</v>
@@ -1554,81 +855,81 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
         <v>1001</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1001</v>
@@ -1665,21 +966,21 @@
       <c r="A6">
         <v>1002</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>1002</v>
@@ -1716,21 +1017,21 @@
       <c r="A7">
         <v>1003</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1003</v>
@@ -1767,21 +1068,21 @@
       <c r="A8">
         <v>1004</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>49</v>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1004</v>
@@ -1818,21 +1119,21 @@
       <c r="A9">
         <v>1005</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>53</v>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>1005</v>
@@ -1869,21 +1170,21 @@
       <c r="A10">
         <v>1006</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>57</v>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>1006</v>
@@ -1920,21 +1221,21 @@
       <c r="A11">
         <v>1007</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>61</v>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H11">
         <v>1007</v>
@@ -1971,21 +1272,21 @@
       <c r="A12">
         <v>1008</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="11">
-        <v>911</v>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>1008</v>
@@ -2022,21 +1323,21 @@
       <c r="A13">
         <v>1009</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>67</v>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H13">
         <v>1009</v>
@@ -2073,21 +1374,21 @@
       <c r="A14">
         <v>1010</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>71</v>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H14">
         <v>1010</v>
@@ -2120,15 +1421,16 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="5:5">
+    <row r="15" spans="1:17">
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="5:5">
+    <row r="16" spans="1:17">
       <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2137,80 +1439,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="83.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.8" style="1"/>
-    <col min="9" max="16384" width="8.8" style="2"/>
+    <col min="2" max="8" width="8.796875" style="1"/>
+    <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/docs/excel/TCar.xlsx
+++ b/docs/excel/TCar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TCar" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,8 +329,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,60 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,39 +423,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +453,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,13 +481,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,169 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,11 +675,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,21 +710,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,15 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -764,6 +755,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -780,10 +780,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,133 +792,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1327,8 +1327,8 @@
   <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1534,10 +1534,10 @@
         <v>5001</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="O5">
         <v>0.2</v>
@@ -1585,10 +1585,10 @@
         <v>5002</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="O6">
         <v>0.4</v>
@@ -1636,10 +1636,10 @@
         <v>5003</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="O7">
         <v>0.6</v>
@@ -1687,10 +1687,10 @@
         <v>5004</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="O8">
         <v>0.8</v>
@@ -1738,10 +1738,10 @@
         <v>5005</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1789,10 +1789,10 @@
         <v>5006</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="O10">
         <v>1.2</v>
@@ -1840,10 +1840,10 @@
         <v>5007</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="O11">
         <v>1.4</v>
@@ -1891,10 +1891,10 @@
         <v>5008</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="O12">
         <v>1.6</v>
@@ -1942,10 +1942,10 @@
         <v>5009</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="O13">
         <v>1.8</v>
@@ -1993,10 +1993,10 @@
         <v>5010</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="O14">
         <v>2</v>
